--- a/appendix/mean_accuracy_balanced.xlsx
+++ b/appendix/mean_accuracy_balanced.xlsx
@@ -525,7 +525,7 @@
         <v>0.535</v>
       </c>
       <c r="G3" t="n">
-        <v>0.446</v>
+        <v>0.449</v>
       </c>
       <c r="H3" t="n">
         <v>0.464</v>

--- a/appendix/mean_accuracy_balanced.xlsx
+++ b/appendix/mean_accuracy_balanced.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.416</v>
+        <v>0.422</v>
       </c>
       <c r="D5" t="n">
-        <v>0.516</v>
+        <v>0.526</v>
       </c>
       <c r="E5" t="n">
-        <v>0.544</v>
+        <v>0.551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.573</v>
+        <v>0.582</v>
       </c>
       <c r="G5" t="n">
-        <v>0.49</v>
+        <v>0.514</v>
       </c>
       <c r="H5" t="n">
-        <v>0.505</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="6">
@@ -618,17 +618,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.416</v>
+        <v>0.422</v>
       </c>
       <c r="D7" t="n">
-        <v>0.516</v>
+        <v>0.526</v>
       </c>
       <c r="E7" t="n">
         <v>0.552</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.591</v>
+        <v>0.602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.639</v>
+        <v>0.627</v>
       </c>
       <c r="F8" t="n">
-        <v>0.671</v>
+        <v>0.666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.626</v>
+        <v>0.625</v>
       </c>
       <c r="H8" t="n">
-        <v>0.65</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.449</v>
+        <v>0.437</v>
       </c>
       <c r="C9" t="n">
-        <v>0.55</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.667</v>
+        <v>0.658</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="G9" t="n">
-        <v>0.647</v>
+        <v>0.642</v>
       </c>
       <c r="H9" t="n">
-        <v>0.663</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
